--- a/reports_pdf/brasil/risk-pt/Cases/26-07-2020_recife_report_EPG.xlsx
+++ b/reports_pdf/brasil/risk-pt/Cases/26-07-2020_recife_report_EPG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3015"/>
+  <dimension ref="A1:D3152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54635,6 +54635,2472 @@
         <v>107.9901732565037</v>
       </c>
     </row>
+    <row r="3016">
+      <c r="A3016" s="1" t="n">
+        <v>3014</v>
+      </c>
+      <c r="B3016" t="inlineStr">
+        <is>
+          <t>12/03/2020</t>
+        </is>
+      </c>
+      <c r="C3016" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3016" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3017">
+      <c r="A3017" s="1" t="n">
+        <v>3015</v>
+      </c>
+      <c r="B3017" t="inlineStr">
+        <is>
+          <t>13/03/2020</t>
+        </is>
+      </c>
+      <c r="C3017" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3017" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3018">
+      <c r="A3018" s="1" t="n">
+        <v>3016</v>
+      </c>
+      <c r="B3018" t="inlineStr">
+        <is>
+          <t>14/03/2020</t>
+        </is>
+      </c>
+      <c r="C3018" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3018" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3019">
+      <c r="A3019" s="1" t="n">
+        <v>3017</v>
+      </c>
+      <c r="B3019" t="inlineStr">
+        <is>
+          <t>15/03/2020</t>
+        </is>
+      </c>
+      <c r="C3019" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3019" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3020">
+      <c r="A3020" s="1" t="n">
+        <v>3018</v>
+      </c>
+      <c r="B3020" t="inlineStr">
+        <is>
+          <t>16/03/2020</t>
+        </is>
+      </c>
+      <c r="C3020" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3020" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3021">
+      <c r="A3021" s="1" t="n">
+        <v>3019</v>
+      </c>
+      <c r="B3021" t="inlineStr">
+        <is>
+          <t>17/03/2020</t>
+        </is>
+      </c>
+      <c r="C3021" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3021" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3022">
+      <c r="A3022" s="1" t="n">
+        <v>3020</v>
+      </c>
+      <c r="B3022" t="inlineStr">
+        <is>
+          <t>18/03/2020</t>
+        </is>
+      </c>
+      <c r="C3022" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3022" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3023">
+      <c r="A3023" s="1" t="n">
+        <v>3021</v>
+      </c>
+      <c r="B3023" t="inlineStr">
+        <is>
+          <t>19/03/2020</t>
+        </is>
+      </c>
+      <c r="C3023" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3023" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3024">
+      <c r="A3024" s="1" t="n">
+        <v>3022</v>
+      </c>
+      <c r="B3024" t="inlineStr">
+        <is>
+          <t>20/03/2020</t>
+        </is>
+      </c>
+      <c r="C3024" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3024" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3025">
+      <c r="A3025" s="1" t="n">
+        <v>3023</v>
+      </c>
+      <c r="B3025" t="inlineStr">
+        <is>
+          <t>21/03/2020</t>
+        </is>
+      </c>
+      <c r="C3025" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3025" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3026">
+      <c r="A3026" s="1" t="n">
+        <v>3024</v>
+      </c>
+      <c r="B3026" t="inlineStr">
+        <is>
+          <t>22/03/2020</t>
+        </is>
+      </c>
+      <c r="C3026" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3026" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3027">
+      <c r="A3027" s="1" t="n">
+        <v>3025</v>
+      </c>
+      <c r="B3027" t="inlineStr">
+        <is>
+          <t>23/03/2020</t>
+        </is>
+      </c>
+      <c r="C3027" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3027" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3028">
+      <c r="A3028" s="1" t="n">
+        <v>3026</v>
+      </c>
+      <c r="B3028" t="inlineStr">
+        <is>
+          <t>24/03/2020</t>
+        </is>
+      </c>
+      <c r="C3028" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3028" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3029">
+      <c r="A3029" s="1" t="n">
+        <v>3027</v>
+      </c>
+      <c r="B3029" t="inlineStr">
+        <is>
+          <t>25/03/2020</t>
+        </is>
+      </c>
+      <c r="C3029" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3029" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3030">
+      <c r="A3030" s="1" t="n">
+        <v>3028</v>
+      </c>
+      <c r="B3030" t="inlineStr">
+        <is>
+          <t>26/03/2020</t>
+        </is>
+      </c>
+      <c r="C3030" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3030" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3031">
+      <c r="A3031" s="1" t="n">
+        <v>3029</v>
+      </c>
+      <c r="B3031" t="inlineStr">
+        <is>
+          <t>27/03/2020</t>
+        </is>
+      </c>
+      <c r="C3031" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3031" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3032">
+      <c r="A3032" s="1" t="n">
+        <v>3030</v>
+      </c>
+      <c r="B3032" t="inlineStr">
+        <is>
+          <t>28/03/2020</t>
+        </is>
+      </c>
+      <c r="C3032" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3032" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3033">
+      <c r="A3033" s="1" t="n">
+        <v>3031</v>
+      </c>
+      <c r="B3033" t="inlineStr">
+        <is>
+          <t>29/03/2020</t>
+        </is>
+      </c>
+      <c r="C3033" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3033" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3034">
+      <c r="A3034" s="1" t="n">
+        <v>3032</v>
+      </c>
+      <c r="B3034" t="inlineStr">
+        <is>
+          <t>30/03/2020</t>
+        </is>
+      </c>
+      <c r="C3034" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3034" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3035">
+      <c r="A3035" s="1" t="n">
+        <v>3033</v>
+      </c>
+      <c r="B3035" t="inlineStr">
+        <is>
+          <t>31/03/2020</t>
+        </is>
+      </c>
+      <c r="C3035" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3035" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3036">
+      <c r="A3036" s="1" t="n">
+        <v>3034</v>
+      </c>
+      <c r="B3036" t="inlineStr">
+        <is>
+          <t>01/04/2020</t>
+        </is>
+      </c>
+      <c r="C3036" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3036" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3037">
+      <c r="A3037" s="1" t="n">
+        <v>3035</v>
+      </c>
+      <c r="B3037" t="inlineStr">
+        <is>
+          <t>02/04/2020</t>
+        </is>
+      </c>
+      <c r="C3037" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3037" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3038">
+      <c r="A3038" s="1" t="n">
+        <v>3036</v>
+      </c>
+      <c r="B3038" t="inlineStr">
+        <is>
+          <t>03/04/2020</t>
+        </is>
+      </c>
+      <c r="C3038" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3038" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3039">
+      <c r="A3039" s="1" t="n">
+        <v>3037</v>
+      </c>
+      <c r="B3039" t="inlineStr">
+        <is>
+          <t>04/04/2020</t>
+        </is>
+      </c>
+      <c r="C3039" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3039" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3040">
+      <c r="A3040" s="1" t="n">
+        <v>3038</v>
+      </c>
+      <c r="B3040" t="inlineStr">
+        <is>
+          <t>05/04/2020</t>
+        </is>
+      </c>
+      <c r="C3040" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3040" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3041">
+      <c r="A3041" s="1" t="n">
+        <v>3039</v>
+      </c>
+      <c r="B3041" t="inlineStr">
+        <is>
+          <t>06/04/2020</t>
+        </is>
+      </c>
+      <c r="C3041" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3041" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3042">
+      <c r="A3042" s="1" t="n">
+        <v>3040</v>
+      </c>
+      <c r="B3042" t="inlineStr">
+        <is>
+          <t>07/04/2020</t>
+        </is>
+      </c>
+      <c r="C3042" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3042" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3043">
+      <c r="A3043" s="1" t="n">
+        <v>3041</v>
+      </c>
+      <c r="B3043" t="inlineStr">
+        <is>
+          <t>08/04/2020</t>
+        </is>
+      </c>
+      <c r="C3043" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3043" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3044">
+      <c r="A3044" s="1" t="n">
+        <v>3042</v>
+      </c>
+      <c r="B3044" t="inlineStr">
+        <is>
+          <t>09/04/2020</t>
+        </is>
+      </c>
+      <c r="C3044" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3044" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3045">
+      <c r="A3045" s="1" t="n">
+        <v>3043</v>
+      </c>
+      <c r="B3045" t="inlineStr">
+        <is>
+          <t>10/04/2020</t>
+        </is>
+      </c>
+      <c r="C3045" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3045" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3046">
+      <c r="A3046" s="1" t="n">
+        <v>3044</v>
+      </c>
+      <c r="B3046" t="inlineStr">
+        <is>
+          <t>11/04/2020</t>
+        </is>
+      </c>
+      <c r="C3046" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3046" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3047">
+      <c r="A3047" s="1" t="n">
+        <v>3045</v>
+      </c>
+      <c r="B3047" t="inlineStr">
+        <is>
+          <t>12/04/2020</t>
+        </is>
+      </c>
+      <c r="C3047" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3047" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3048">
+      <c r="A3048" s="1" t="n">
+        <v>3046</v>
+      </c>
+      <c r="B3048" t="inlineStr">
+        <is>
+          <t>13/04/2020</t>
+        </is>
+      </c>
+      <c r="C3048" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3048" t="n">
+        <v>0.2349701352958039</v>
+      </c>
+    </row>
+    <row r="3049">
+      <c r="A3049" s="1" t="n">
+        <v>3047</v>
+      </c>
+      <c r="B3049" t="inlineStr">
+        <is>
+          <t>14/04/2020</t>
+        </is>
+      </c>
+      <c r="C3049" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3049" t="n">
+        <v>0.4699402705916078</v>
+      </c>
+    </row>
+    <row r="3050">
+      <c r="A3050" s="1" t="n">
+        <v>3048</v>
+      </c>
+      <c r="B3050" t="inlineStr">
+        <is>
+          <t>15/04/2020</t>
+        </is>
+      </c>
+      <c r="C3050" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3050" t="n">
+        <v>0.7049104058874116</v>
+      </c>
+    </row>
+    <row r="3051">
+      <c r="A3051" s="1" t="n">
+        <v>3049</v>
+      </c>
+      <c r="B3051" t="inlineStr">
+        <is>
+          <t>16/04/2020</t>
+        </is>
+      </c>
+      <c r="C3051" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3051" t="n">
+        <v>0.7049104058874116</v>
+      </c>
+    </row>
+    <row r="3052">
+      <c r="A3052" s="1" t="n">
+        <v>3050</v>
+      </c>
+      <c r="B3052" t="inlineStr">
+        <is>
+          <t>17/04/2020</t>
+        </is>
+      </c>
+      <c r="C3052" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3052" t="n">
+        <v>0.7049104058874116</v>
+      </c>
+    </row>
+    <row r="3053">
+      <c r="A3053" s="1" t="n">
+        <v>3051</v>
+      </c>
+      <c r="B3053" t="inlineStr">
+        <is>
+          <t>18/04/2020</t>
+        </is>
+      </c>
+      <c r="C3053" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3053" t="n">
+        <v>0.7049104058874116</v>
+      </c>
+    </row>
+    <row r="3054">
+      <c r="A3054" s="1" t="n">
+        <v>3052</v>
+      </c>
+      <c r="B3054" t="inlineStr">
+        <is>
+          <t>19/04/2020</t>
+        </is>
+      </c>
+      <c r="C3054" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3054" t="n">
+        <v>0.7049104058874116</v>
+      </c>
+    </row>
+    <row r="3055">
+      <c r="A3055" s="1" t="n">
+        <v>3053</v>
+      </c>
+      <c r="B3055" t="inlineStr">
+        <is>
+          <t>20/04/2020</t>
+        </is>
+      </c>
+      <c r="C3055" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3055" t="n">
+        <v>0.4699402705916078</v>
+      </c>
+    </row>
+    <row r="3056">
+      <c r="A3056" s="1" t="n">
+        <v>3054</v>
+      </c>
+      <c r="B3056" t="inlineStr">
+        <is>
+          <t>21/04/2020</t>
+        </is>
+      </c>
+      <c r="C3056" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3056" t="n">
+        <v>0.2349701352958039</v>
+      </c>
+    </row>
+    <row r="3057">
+      <c r="A3057" s="1" t="n">
+        <v>3055</v>
+      </c>
+      <c r="B3057" t="inlineStr">
+        <is>
+          <t>22/04/2020</t>
+        </is>
+      </c>
+      <c r="C3057" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3057" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3058">
+      <c r="A3058" s="1" t="n">
+        <v>3056</v>
+      </c>
+      <c r="B3058" t="inlineStr">
+        <is>
+          <t>23/04/2020</t>
+        </is>
+      </c>
+      <c r="C3058" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3058" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3059">
+      <c r="A3059" s="1" t="n">
+        <v>3057</v>
+      </c>
+      <c r="B3059" t="inlineStr">
+        <is>
+          <t>24/04/2020</t>
+        </is>
+      </c>
+      <c r="C3059" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3059" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3060">
+      <c r="A3060" s="1" t="n">
+        <v>3058</v>
+      </c>
+      <c r="B3060" t="inlineStr">
+        <is>
+          <t>25/04/2020</t>
+        </is>
+      </c>
+      <c r="C3060" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3060" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3061">
+      <c r="A3061" s="1" t="n">
+        <v>3059</v>
+      </c>
+      <c r="B3061" t="inlineStr">
+        <is>
+          <t>26/04/2020</t>
+        </is>
+      </c>
+      <c r="C3061" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3061" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3062">
+      <c r="A3062" s="1" t="n">
+        <v>3060</v>
+      </c>
+      <c r="B3062" t="inlineStr">
+        <is>
+          <t>27/04/2020</t>
+        </is>
+      </c>
+      <c r="C3062" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3062" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3063">
+      <c r="A3063" s="1" t="n">
+        <v>3061</v>
+      </c>
+      <c r="B3063" t="inlineStr">
+        <is>
+          <t>28/04/2020</t>
+        </is>
+      </c>
+      <c r="C3063" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3063" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3064">
+      <c r="A3064" s="1" t="n">
+        <v>3062</v>
+      </c>
+      <c r="B3064" t="inlineStr">
+        <is>
+          <t>29/04/2020</t>
+        </is>
+      </c>
+      <c r="C3064" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3064" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3065">
+      <c r="A3065" s="1" t="n">
+        <v>3063</v>
+      </c>
+      <c r="B3065" t="inlineStr">
+        <is>
+          <t>30/04/2020</t>
+        </is>
+      </c>
+      <c r="C3065" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3065" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3066">
+      <c r="A3066" s="1" t="n">
+        <v>3064</v>
+      </c>
+      <c r="B3066" t="inlineStr">
+        <is>
+          <t>01/05/2020</t>
+        </is>
+      </c>
+      <c r="C3066" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3066" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3067">
+      <c r="A3067" s="1" t="n">
+        <v>3065</v>
+      </c>
+      <c r="B3067" t="inlineStr">
+        <is>
+          <t>02/05/2020</t>
+        </is>
+      </c>
+      <c r="C3067" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3067" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3068">
+      <c r="A3068" s="1" t="n">
+        <v>3066</v>
+      </c>
+      <c r="B3068" t="inlineStr">
+        <is>
+          <t>03/05/2020</t>
+        </is>
+      </c>
+      <c r="C3068" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3068" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3069">
+      <c r="A3069" s="1" t="n">
+        <v>3067</v>
+      </c>
+      <c r="B3069" t="inlineStr">
+        <is>
+          <t>04/05/2020</t>
+        </is>
+      </c>
+      <c r="C3069" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3069" t="n">
+        <v>0.2349701352958039</v>
+      </c>
+    </row>
+    <row r="3070">
+      <c r="A3070" s="1" t="n">
+        <v>3068</v>
+      </c>
+      <c r="B3070" t="inlineStr">
+        <is>
+          <t>05/05/2020</t>
+        </is>
+      </c>
+      <c r="C3070" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3070" t="n">
+        <v>0.4699402705916078</v>
+      </c>
+    </row>
+    <row r="3071">
+      <c r="A3071" s="1" t="n">
+        <v>3069</v>
+      </c>
+      <c r="B3071" t="inlineStr">
+        <is>
+          <t>06/05/2020</t>
+        </is>
+      </c>
+      <c r="C3071" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3071" t="n">
+        <v>1.879761082366431</v>
+      </c>
+    </row>
+    <row r="3072">
+      <c r="A3072" s="1" t="n">
+        <v>3070</v>
+      </c>
+      <c r="B3072" t="inlineStr">
+        <is>
+          <t>07/05/2020</t>
+        </is>
+      </c>
+      <c r="C3072" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3072" t="n">
+        <v>2.349701352958039</v>
+      </c>
+    </row>
+    <row r="3073">
+      <c r="A3073" s="1" t="n">
+        <v>3071</v>
+      </c>
+      <c r="B3073" t="inlineStr">
+        <is>
+          <t>08/05/2020</t>
+        </is>
+      </c>
+      <c r="C3073" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3073" t="n">
+        <v>2.819641623549646</v>
+      </c>
+    </row>
+    <row r="3074">
+      <c r="A3074" s="1" t="n">
+        <v>3072</v>
+      </c>
+      <c r="B3074" t="inlineStr">
+        <is>
+          <t>09/05/2020</t>
+        </is>
+      </c>
+      <c r="C3074" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3074" t="n">
+        <v>7.519044329465724</v>
+      </c>
+    </row>
+    <row r="3075">
+      <c r="A3075" s="1" t="n">
+        <v>3073</v>
+      </c>
+      <c r="B3075" t="inlineStr">
+        <is>
+          <t>10/05/2020</t>
+        </is>
+      </c>
+      <c r="C3075" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3075" t="n">
+        <v>9.398805411832155</v>
+      </c>
+    </row>
+    <row r="3076">
+      <c r="A3076" s="1" t="n">
+        <v>3074</v>
+      </c>
+      <c r="B3076" t="inlineStr">
+        <is>
+          <t>11/05/2020</t>
+        </is>
+      </c>
+      <c r="C3076" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3076" t="n">
+        <v>15.50802892952306</v>
+      </c>
+    </row>
+    <row r="3077">
+      <c r="A3077" s="1" t="n">
+        <v>3075</v>
+      </c>
+      <c r="B3077" t="inlineStr">
+        <is>
+          <t>12/05/2020</t>
+        </is>
+      </c>
+      <c r="C3077" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3077" t="n">
+        <v>21.38228231191816</v>
+      </c>
+    </row>
+    <row r="3078">
+      <c r="A3078" s="1" t="n">
+        <v>3076</v>
+      </c>
+      <c r="B3078" t="inlineStr">
+        <is>
+          <t>13/05/2020</t>
+        </is>
+      </c>
+      <c r="C3078" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3078" t="n">
+        <v>56.39283247099293</v>
+      </c>
+    </row>
+    <row r="3079">
+      <c r="A3079" s="1" t="n">
+        <v>3077</v>
+      </c>
+      <c r="B3079" t="inlineStr">
+        <is>
+          <t>14/05/2020</t>
+        </is>
+      </c>
+      <c r="C3079" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3079" t="n">
+        <v>67.67139896519153</v>
+      </c>
+    </row>
+    <row r="3080">
+      <c r="A3080" s="1" t="n">
+        <v>3078</v>
+      </c>
+      <c r="B3080" t="inlineStr">
+        <is>
+          <t>15/05/2020</t>
+        </is>
+      </c>
+      <c r="C3080" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3080" t="n">
+        <v>88.81871114181388</v>
+      </c>
+    </row>
+    <row r="3081">
+      <c r="A3081" s="1" t="n">
+        <v>3079</v>
+      </c>
+      <c r="B3081" t="inlineStr">
+        <is>
+          <t>16/05/2020</t>
+        </is>
+      </c>
+      <c r="C3081" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3081" t="n">
+        <v>93.98805411832156</v>
+      </c>
+    </row>
+    <row r="3082">
+      <c r="A3082" s="1" t="n">
+        <v>3080</v>
+      </c>
+      <c r="B3082" t="inlineStr">
+        <is>
+          <t>17/05/2020</t>
+        </is>
+      </c>
+      <c r="C3082" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3082" t="n">
+        <v>123.3593210302971</v>
+      </c>
+    </row>
+    <row r="3083">
+      <c r="A3083" s="1" t="n">
+        <v>3081</v>
+      </c>
+      <c r="B3083" t="inlineStr">
+        <is>
+          <t>18/05/2020</t>
+        </is>
+      </c>
+      <c r="C3083" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3083" t="n">
+        <v>120.6571644743953</v>
+      </c>
+    </row>
+    <row r="3084">
+      <c r="A3084" s="1" t="n">
+        <v>3082</v>
+      </c>
+      <c r="B3084" t="inlineStr">
+        <is>
+          <t>19/05/2020</t>
+        </is>
+      </c>
+      <c r="C3084" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3084" t="n">
+        <v>116.1222408631863</v>
+      </c>
+    </row>
+    <row r="3085">
+      <c r="A3085" s="1" t="n">
+        <v>3083</v>
+      </c>
+      <c r="B3085" t="inlineStr">
+        <is>
+          <t>20/05/2020</t>
+        </is>
+      </c>
+      <c r="C3085" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3085" t="n">
+        <v>88.90522287344552</v>
+      </c>
+    </row>
+    <row r="3086">
+      <c r="A3086" s="1" t="n">
+        <v>3084</v>
+      </c>
+      <c r="B3086" t="inlineStr">
+        <is>
+          <t>21/05/2020</t>
+        </is>
+      </c>
+      <c r="C3086" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3086" t="n">
+        <v>66.70054508799204</v>
+      </c>
+    </row>
+    <row r="3087">
+      <c r="A3087" s="1" t="n">
+        <v>3085</v>
+      </c>
+      <c r="B3087" t="inlineStr">
+        <is>
+          <t>22/05/2020</t>
+        </is>
+      </c>
+      <c r="C3087" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3087" t="n">
+        <v>41.32377047604523</v>
+      </c>
+    </row>
+    <row r="3088">
+      <c r="A3088" s="1" t="n">
+        <v>3086</v>
+      </c>
+      <c r="B3088" t="inlineStr">
+        <is>
+          <t>23/05/2020</t>
+        </is>
+      </c>
+      <c r="C3088" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3088" t="n">
+        <v>32.38849705838751</v>
+      </c>
+    </row>
+    <row r="3089">
+      <c r="A3089" s="1" t="n">
+        <v>3087</v>
+      </c>
+      <c r="B3089" t="inlineStr">
+        <is>
+          <t>24/05/2020</t>
+        </is>
+      </c>
+      <c r="C3089" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3089" t="n">
+        <v>17.35681667587323</v>
+      </c>
+    </row>
+    <row r="3090">
+      <c r="A3090" s="1" t="n">
+        <v>3088</v>
+      </c>
+      <c r="B3090" t="inlineStr">
+        <is>
+          <t>25/05/2020</t>
+        </is>
+      </c>
+      <c r="C3090" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3090" t="n">
+        <v>14.60256320613569</v>
+      </c>
+    </row>
+    <row r="3091">
+      <c r="A3091" s="1" t="n">
+        <v>3089</v>
+      </c>
+      <c r="B3091" t="inlineStr">
+        <is>
+          <t>26/05/2020</t>
+        </is>
+      </c>
+      <c r="C3091" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3091" t="n">
+        <v>21.90681160384111</v>
+      </c>
+    </row>
+    <row r="3092">
+      <c r="A3092" s="1" t="n">
+        <v>3090</v>
+      </c>
+      <c r="B3092" t="inlineStr">
+        <is>
+          <t>27/05/2020</t>
+        </is>
+      </c>
+      <c r="C3092" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3092" t="n">
+        <v>20.86012645570526</v>
+      </c>
+    </row>
+    <row r="3093">
+      <c r="A3093" s="1" t="n">
+        <v>3091</v>
+      </c>
+      <c r="B3093" t="inlineStr">
+        <is>
+          <t>28/05/2020</t>
+        </is>
+      </c>
+      <c r="C3093" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3093" t="n">
+        <v>38.93977297707684</v>
+      </c>
+    </row>
+    <row r="3094">
+      <c r="A3094" s="1" t="n">
+        <v>3092</v>
+      </c>
+      <c r="B3094" t="inlineStr">
+        <is>
+          <t>29/05/2020</t>
+        </is>
+      </c>
+      <c r="C3094" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3094" t="n">
+        <v>47.86863811831739</v>
+      </c>
+    </row>
+    <row r="3095">
+      <c r="A3095" s="1" t="n">
+        <v>3093</v>
+      </c>
+      <c r="B3095" t="inlineStr">
+        <is>
+          <t>30/05/2020</t>
+        </is>
+      </c>
+      <c r="C3095" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3095" t="n">
+        <v>66.83594959525088</v>
+      </c>
+    </row>
+    <row r="3096">
+      <c r="A3096" s="1" t="n">
+        <v>3094</v>
+      </c>
+      <c r="B3096" t="inlineStr">
+        <is>
+          <t>31/05/2020</t>
+        </is>
+      </c>
+      <c r="C3096" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3096" t="n">
+        <v>224.1615090721969</v>
+      </c>
+    </row>
+    <row r="3097">
+      <c r="A3097" s="1" t="n">
+        <v>3095</v>
+      </c>
+      <c r="B3097" t="inlineStr">
+        <is>
+          <t>01/06/2020</t>
+        </is>
+      </c>
+      <c r="C3097" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3097" t="n">
+        <v>262.6966112607088</v>
+      </c>
+    </row>
+    <row r="3098">
+      <c r="A3098" s="1" t="n">
+        <v>3096</v>
+      </c>
+      <c r="B3098" t="inlineStr">
+        <is>
+          <t>02/06/2020</t>
+        </is>
+      </c>
+      <c r="C3098" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3098" t="n">
+        <v>303.6988998698265</v>
+      </c>
+    </row>
+    <row r="3099">
+      <c r="A3099" s="1" t="n">
+        <v>3097</v>
+      </c>
+      <c r="B3099" t="inlineStr">
+        <is>
+          <t>03/06/2020</t>
+        </is>
+      </c>
+      <c r="C3099" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3099" t="n">
+        <v>437.3969068531389</v>
+      </c>
+    </row>
+    <row r="3100">
+      <c r="A3100" s="1" t="n">
+        <v>3098</v>
+      </c>
+      <c r="B3100" t="inlineStr">
+        <is>
+          <t>04/06/2020</t>
+        </is>
+      </c>
+      <c r="C3100" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3100" t="n">
+        <v>433.452765296388</v>
+      </c>
+    </row>
+    <row r="3101">
+      <c r="A3101" s="1" t="n">
+        <v>3099</v>
+      </c>
+      <c r="B3101" t="inlineStr">
+        <is>
+          <t>05/06/2020</t>
+        </is>
+      </c>
+      <c r="C3101" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3101" t="n">
+        <v>453.8756512751547</v>
+      </c>
+    </row>
+    <row r="3102">
+      <c r="A3102" s="1" t="n">
+        <v>3100</v>
+      </c>
+      <c r="B3102" t="inlineStr">
+        <is>
+          <t>06/06/2020</t>
+        </is>
+      </c>
+      <c r="C3102" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3102" t="n">
+        <v>406.2836603500917</v>
+      </c>
+    </row>
+    <row r="3103">
+      <c r="A3103" s="1" t="n">
+        <v>3101</v>
+      </c>
+      <c r="B3103" t="inlineStr">
+        <is>
+          <t>07/06/2020</t>
+        </is>
+      </c>
+      <c r="C3103" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3103" t="n">
+        <v>345.4326403619083</v>
+      </c>
+    </row>
+    <row r="3104">
+      <c r="A3104" s="1" t="n">
+        <v>3102</v>
+      </c>
+      <c r="B3104" t="inlineStr">
+        <is>
+          <t>08/06/2020</t>
+        </is>
+      </c>
+      <c r="C3104" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3104" t="n">
+        <v>269.6156100397956</v>
+      </c>
+    </row>
+    <row r="3105">
+      <c r="A3105" s="1" t="n">
+        <v>3103</v>
+      </c>
+      <c r="B3105" t="inlineStr">
+        <is>
+          <t>09/06/2020</t>
+        </is>
+      </c>
+      <c r="C3105" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3105" t="n">
+        <v>205.3097626243884</v>
+      </c>
+    </row>
+    <row r="3106">
+      <c r="A3106" s="1" t="n">
+        <v>3104</v>
+      </c>
+      <c r="B3106" t="inlineStr">
+        <is>
+          <t>10/06/2020</t>
+        </is>
+      </c>
+      <c r="C3106" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3106" t="n">
+        <v>125.7978911888722</v>
+      </c>
+    </row>
+    <row r="3107">
+      <c r="A3107" s="1" t="n">
+        <v>3105</v>
+      </c>
+      <c r="B3107" t="inlineStr">
+        <is>
+          <t>11/06/2020</t>
+        </is>
+      </c>
+      <c r="C3107" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3107" t="n">
+        <v>72.43207501546235</v>
+      </c>
+    </row>
+    <row r="3108">
+      <c r="A3108" s="1" t="n">
+        <v>3106</v>
+      </c>
+      <c r="B3108" t="inlineStr">
+        <is>
+          <t>12/06/2020</t>
+        </is>
+      </c>
+      <c r="C3108" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3108" t="n">
+        <v>81.38749099741707</v>
+      </c>
+    </row>
+    <row r="3109">
+      <c r="A3109" s="1" t="n">
+        <v>3107</v>
+      </c>
+      <c r="B3109" t="inlineStr">
+        <is>
+          <t>13/06/2020</t>
+        </is>
+      </c>
+      <c r="C3109" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3109" t="n">
+        <v>119.1043936076667</v>
+      </c>
+    </row>
+    <row r="3110">
+      <c r="A3110" s="1" t="n">
+        <v>3108</v>
+      </c>
+      <c r="B3110" t="inlineStr">
+        <is>
+          <t>14/06/2020</t>
+        </is>
+      </c>
+      <c r="C3110" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3110" t="n">
+        <v>86.40888275086768</v>
+      </c>
+    </row>
+    <row r="3111">
+      <c r="A3111" s="1" t="n">
+        <v>3109</v>
+      </c>
+      <c r="B3111" t="inlineStr">
+        <is>
+          <t>15/06/2020</t>
+        </is>
+      </c>
+      <c r="C3111" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3111" t="n">
+        <v>103.2036317060965</v>
+      </c>
+    </row>
+    <row r="3112">
+      <c r="A3112" s="1" t="n">
+        <v>3110</v>
+      </c>
+      <c r="B3112" t="inlineStr">
+        <is>
+          <t>16/06/2020</t>
+        </is>
+      </c>
+      <c r="C3112" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3112" t="n">
+        <v>110.2999077997081</v>
+      </c>
+    </row>
+    <row r="3113">
+      <c r="A3113" s="1" t="n">
+        <v>3111</v>
+      </c>
+      <c r="B3113" t="inlineStr">
+        <is>
+          <t>17/06/2020</t>
+        </is>
+      </c>
+      <c r="C3113" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3113" t="n">
+        <v>116.8104967924511</v>
+      </c>
+    </row>
+    <row r="3114">
+      <c r="A3114" s="1" t="n">
+        <v>3112</v>
+      </c>
+      <c r="B3114" t="inlineStr">
+        <is>
+          <t>18/06/2020</t>
+        </is>
+      </c>
+      <c r="C3114" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3114" t="n">
+        <v>119.8651085512965</v>
+      </c>
+    </row>
+    <row r="3115">
+      <c r="A3115" s="1" t="n">
+        <v>3113</v>
+      </c>
+      <c r="B3115" t="inlineStr">
+        <is>
+          <t>19/06/2020</t>
+        </is>
+      </c>
+      <c r="C3115" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3115" t="n">
+        <v>118.7273969273377</v>
+      </c>
+    </row>
+    <row r="3116">
+      <c r="A3116" s="1" t="n">
+        <v>3114</v>
+      </c>
+      <c r="B3116" t="inlineStr">
+        <is>
+          <t>20/06/2020</t>
+        </is>
+      </c>
+      <c r="C3116" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3116" t="n">
+        <v>133.5683215432549</v>
+      </c>
+    </row>
+    <row r="3117">
+      <c r="A3117" s="1" t="n">
+        <v>3115</v>
+      </c>
+      <c r="B3117" t="inlineStr">
+        <is>
+          <t>21/06/2020</t>
+        </is>
+      </c>
+      <c r="C3117" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3117" t="n">
+        <v>138.0582659395872</v>
+      </c>
+    </row>
+    <row r="3118">
+      <c r="A3118" s="1" t="n">
+        <v>3116</v>
+      </c>
+      <c r="B3118" t="inlineStr">
+        <is>
+          <t>22/06/2020</t>
+        </is>
+      </c>
+      <c r="C3118" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3118" t="n">
+        <v>130.9940566577298</v>
+      </c>
+    </row>
+    <row r="3119">
+      <c r="A3119" s="1" t="n">
+        <v>3117</v>
+      </c>
+      <c r="B3119" t="inlineStr">
+        <is>
+          <t>23/06/2020</t>
+        </is>
+      </c>
+      <c r="C3119" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3119" t="n">
+        <v>128.4672279993333</v>
+      </c>
+    </row>
+    <row r="3120">
+      <c r="A3120" s="1" t="n">
+        <v>3118</v>
+      </c>
+      <c r="B3120" t="inlineStr">
+        <is>
+          <t>24/06/2020</t>
+        </is>
+      </c>
+      <c r="C3120" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3120" t="n">
+        <v>139.1752875366404</v>
+      </c>
+    </row>
+    <row r="3121">
+      <c r="A3121" s="1" t="n">
+        <v>3119</v>
+      </c>
+      <c r="B3121" t="inlineStr">
+        <is>
+          <t>25/06/2020</t>
+        </is>
+      </c>
+      <c r="C3121" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3121" t="n">
+        <v>134.3598395310623</v>
+      </c>
+    </row>
+    <row r="3122">
+      <c r="A3122" s="1" t="n">
+        <v>3120</v>
+      </c>
+      <c r="B3122" t="inlineStr">
+        <is>
+          <t>26/06/2020</t>
+        </is>
+      </c>
+      <c r="C3122" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3122" t="n">
+        <v>108.8775587211101</v>
+      </c>
+    </row>
+    <row r="3123">
+      <c r="A3123" s="1" t="n">
+        <v>3121</v>
+      </c>
+      <c r="B3123" t="inlineStr">
+        <is>
+          <t>27/06/2020</t>
+        </is>
+      </c>
+      <c r="C3123" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3123" t="n">
+        <v>119.7540711127652</v>
+      </c>
+    </row>
+    <row r="3124">
+      <c r="A3124" s="1" t="n">
+        <v>3122</v>
+      </c>
+      <c r="B3124" t="inlineStr">
+        <is>
+          <t>28/06/2020</t>
+        </is>
+      </c>
+      <c r="C3124" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3124" t="n">
+        <v>124.8193520893087</v>
+      </c>
+    </row>
+    <row r="3125">
+      <c r="A3125" s="1" t="n">
+        <v>3123</v>
+      </c>
+      <c r="B3125" t="inlineStr">
+        <is>
+          <t>29/06/2020</t>
+        </is>
+      </c>
+      <c r="C3125" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3125" t="n">
+        <v>130.3526063918724</v>
+      </c>
+    </row>
+    <row r="3126">
+      <c r="A3126" s="1" t="n">
+        <v>3124</v>
+      </c>
+      <c r="B3126" t="inlineStr">
+        <is>
+          <t>30/06/2020</t>
+        </is>
+      </c>
+      <c r="C3126" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3126" t="n">
+        <v>129.799735485294</v>
+      </c>
+    </row>
+    <row r="3127">
+      <c r="A3127" s="1" t="n">
+        <v>3125</v>
+      </c>
+      <c r="B3127" t="inlineStr">
+        <is>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+      <c r="C3127" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3127" t="n">
+        <v>116.2257505829179</v>
+      </c>
+    </row>
+    <row r="3128">
+      <c r="A3128" s="1" t="n">
+        <v>3126</v>
+      </c>
+      <c r="B3128" t="inlineStr">
+        <is>
+          <t>02/07/2020</t>
+        </is>
+      </c>
+      <c r="C3128" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3128" t="n">
+        <v>115.3985529293928</v>
+      </c>
+    </row>
+    <row r="3129">
+      <c r="A3129" s="1" t="n">
+        <v>3127</v>
+      </c>
+      <c r="B3129" t="inlineStr">
+        <is>
+          <t>03/07/2020</t>
+        </is>
+      </c>
+      <c r="C3129" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3129" t="n">
+        <v>137.2617738626296</v>
+      </c>
+    </row>
+    <row r="3130">
+      <c r="A3130" s="1" t="n">
+        <v>3128</v>
+      </c>
+      <c r="B3130" t="inlineStr">
+        <is>
+          <t>04/07/2020</t>
+        </is>
+      </c>
+      <c r="C3130" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3130" t="n">
+        <v>141.2250564227796</v>
+      </c>
+    </row>
+    <row r="3131">
+      <c r="A3131" s="1" t="n">
+        <v>3129</v>
+      </c>
+      <c r="B3131" t="inlineStr">
+        <is>
+          <t>05/07/2020</t>
+        </is>
+      </c>
+      <c r="C3131" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3131" t="n">
+        <v>200.6870711046352</v>
+      </c>
+    </row>
+    <row r="3132">
+      <c r="A3132" s="1" t="n">
+        <v>3130</v>
+      </c>
+      <c r="B3132" t="inlineStr">
+        <is>
+          <t>06/07/2020</t>
+        </is>
+      </c>
+      <c r="C3132" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3132" t="n">
+        <v>232.2759890854236</v>
+      </c>
+    </row>
+    <row r="3133">
+      <c r="A3133" s="1" t="n">
+        <v>3131</v>
+      </c>
+      <c r="B3133" t="inlineStr">
+        <is>
+          <t>07/07/2020</t>
+        </is>
+      </c>
+      <c r="C3133" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3133" t="n">
+        <v>253.4672942622217</v>
+      </c>
+    </row>
+    <row r="3134">
+      <c r="A3134" s="1" t="n">
+        <v>3132</v>
+      </c>
+      <c r="B3134" t="inlineStr">
+        <is>
+          <t>08/07/2020</t>
+        </is>
+      </c>
+      <c r="C3134" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3134" t="n">
+        <v>243.6829196549911</v>
+      </c>
+    </row>
+    <row r="3135">
+      <c r="A3135" s="1" t="n">
+        <v>3133</v>
+      </c>
+      <c r="B3135" t="inlineStr">
+        <is>
+          <t>09/07/2020</t>
+        </is>
+      </c>
+      <c r="C3135" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3135" t="n">
+        <v>281.6559899852114</v>
+      </c>
+    </row>
+    <row r="3136">
+      <c r="A3136" s="1" t="n">
+        <v>3134</v>
+      </c>
+      <c r="B3136" t="inlineStr">
+        <is>
+          <t>10/07/2020</t>
+        </is>
+      </c>
+      <c r="C3136" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3136" t="n">
+        <v>331.2975855658181</v>
+      </c>
+    </row>
+    <row r="3137">
+      <c r="A3137" s="1" t="n">
+        <v>3135</v>
+      </c>
+      <c r="B3137" t="inlineStr">
+        <is>
+          <t>11/07/2020</t>
+        </is>
+      </c>
+      <c r="C3137" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3137" t="n">
+        <v>341.0214329981428</v>
+      </c>
+    </row>
+    <row r="3138">
+      <c r="A3138" s="1" t="n">
+        <v>3136</v>
+      </c>
+      <c r="B3138" t="inlineStr">
+        <is>
+          <t>12/07/2020</t>
+        </is>
+      </c>
+      <c r="C3138" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3138" t="n">
+        <v>302.9531438360676</v>
+      </c>
+    </row>
+    <row r="3139">
+      <c r="A3139" s="1" t="n">
+        <v>3137</v>
+      </c>
+      <c r="B3139" t="inlineStr">
+        <is>
+          <t>13/07/2020</t>
+        </is>
+      </c>
+      <c r="C3139" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3139" t="n">
+        <v>269.3096618883651</v>
+      </c>
+    </row>
+    <row r="3140">
+      <c r="A3140" s="1" t="n">
+        <v>3138</v>
+      </c>
+      <c r="B3140" t="inlineStr">
+        <is>
+          <t>14/07/2020</t>
+        </is>
+      </c>
+      <c r="C3140" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3140" t="n">
+        <v>238.1814555529151</v>
+      </c>
+    </row>
+    <row r="3141">
+      <c r="A3141" s="1" t="n">
+        <v>3139</v>
+      </c>
+      <c r="B3141" t="inlineStr">
+        <is>
+          <t>15/07/2020</t>
+        </is>
+      </c>
+      <c r="C3141" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3141" t="n">
+        <v>243.6698322048169</v>
+      </c>
+    </row>
+    <row r="3142">
+      <c r="A3142" s="1" t="n">
+        <v>3140</v>
+      </c>
+      <c r="B3142" t="inlineStr">
+        <is>
+          <t>16/07/2020</t>
+        </is>
+      </c>
+      <c r="C3142" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3142" t="n">
+        <v>242.590759973161</v>
+      </c>
+    </row>
+    <row r="3143">
+      <c r="A3143" s="1" t="n">
+        <v>3141</v>
+      </c>
+      <c r="B3143" t="inlineStr">
+        <is>
+          <t>17/07/2020</t>
+        </is>
+      </c>
+      <c r="C3143" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3143" t="n">
+        <v>277.2127934421315</v>
+      </c>
+    </row>
+    <row r="3144">
+      <c r="A3144" s="1" t="n">
+        <v>3142</v>
+      </c>
+      <c r="B3144" t="inlineStr">
+        <is>
+          <t>18/07/2020</t>
+        </is>
+      </c>
+      <c r="C3144" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3144" t="n">
+        <v>317.2052276978584</v>
+      </c>
+    </row>
+    <row r="3145">
+      <c r="A3145" s="1" t="n">
+        <v>3143</v>
+      </c>
+      <c r="B3145" t="inlineStr">
+        <is>
+          <t>19/07/2020</t>
+        </is>
+      </c>
+      <c r="C3145" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3145" t="n">
+        <v>449.2201320186004</v>
+      </c>
+    </row>
+    <row r="3146">
+      <c r="A3146" s="1" t="n">
+        <v>3144</v>
+      </c>
+      <c r="B3146" t="inlineStr">
+        <is>
+          <t>20/07/2020</t>
+        </is>
+      </c>
+      <c r="C3146" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3146" t="n">
+        <v>512.0615912216643</v>
+      </c>
+    </row>
+    <row r="3147">
+      <c r="A3147" s="1" t="n">
+        <v>3145</v>
+      </c>
+      <c r="B3147" t="inlineStr">
+        <is>
+          <t>21/07/2020</t>
+        </is>
+      </c>
+      <c r="C3147" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3147" t="n">
+        <v>530.3159985501941</v>
+      </c>
+    </row>
+    <row r="3148">
+      <c r="A3148" s="1" t="n">
+        <v>3146</v>
+      </c>
+      <c r="B3148" t="inlineStr">
+        <is>
+          <t>22/07/2020</t>
+        </is>
+      </c>
+      <c r="C3148" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3148" t="n">
+        <v>489.4496387391301</v>
+      </c>
+    </row>
+    <row r="3149">
+      <c r="A3149" s="1" t="n">
+        <v>3147</v>
+      </c>
+      <c r="B3149" t="inlineStr">
+        <is>
+          <t>23/07/2020</t>
+        </is>
+      </c>
+      <c r="C3149" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3149" t="n">
+        <v>454.2476261856422</v>
+      </c>
+    </row>
+    <row r="3150">
+      <c r="A3150" s="1" t="n">
+        <v>3148</v>
+      </c>
+      <c r="B3150" t="inlineStr">
+        <is>
+          <t>24/07/2020</t>
+        </is>
+      </c>
+      <c r="C3150" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3150" t="n">
+        <v>451.548509100834</v>
+      </c>
+    </row>
+    <row r="3151">
+      <c r="A3151" s="1" t="n">
+        <v>3149</v>
+      </c>
+      <c r="B3151" t="inlineStr">
+        <is>
+          <t>25/07/2020</t>
+        </is>
+      </c>
+      <c r="C3151" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3151" t="n">
+        <v>397.7547223589151</v>
+      </c>
+    </row>
+    <row r="3152">
+      <c r="A3152" s="1" t="n">
+        <v>3150</v>
+      </c>
+      <c r="B3152" t="inlineStr">
+        <is>
+          <t>26/07/2020</t>
+        </is>
+      </c>
+      <c r="C3152" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="D3152" t="n">
+        <v>308.7923573152567</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
